--- a/matlab/拟合数据.xlsx
+++ b/matlab/拟合数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="10848" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>K12</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>K14</t>
+  </si>
+  <si>
+    <t>K15</t>
+  </si>
+  <si>
+    <t>K16</t>
+  </si>
+  <si>
+    <t>K21</t>
+  </si>
+  <si>
+    <t>K22</t>
+  </si>
+  <si>
+    <t>K23</t>
+  </si>
+  <si>
+    <t>K24</t>
+  </si>
+  <si>
+    <t>K25</t>
+  </si>
+  <si>
+    <t>K26</t>
+  </si>
   <si>
     <t>L^3</t>
   </si>
@@ -43,13 +79,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Monaco"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -504,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,34 +558,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,100 +594,109 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -998,686 +1046,773 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:N20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="10.6666666666667"/>
-    <col min="9" max="9" width="10.6666666666667"/>
-    <col min="11" max="11" width="10.6666666666667"/>
-    <col min="13" max="13" width="9.66666666666667"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="13" width="11.5555555555556" style="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:13">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-127.5384</v>
-      </c>
-      <c r="C2">
-        <v>-17.0269</v>
-      </c>
-      <c r="D2">
-        <v>-19.2266</v>
-      </c>
-      <c r="E2">
-        <v>-12.0306</v>
-      </c>
-      <c r="F2">
-        <v>-136.1066</v>
-      </c>
-      <c r="G2">
-        <v>-15.1166</v>
-      </c>
-      <c r="H2">
-        <v>-72.3749</v>
-      </c>
-      <c r="I2">
-        <v>-28.8617</v>
-      </c>
-      <c r="J2">
-        <v>-38.4968</v>
-      </c>
-      <c r="K2">
-        <v>-59.4404</v>
-      </c>
-      <c r="L2">
-        <v>271.9045</v>
-      </c>
-      <c r="M2">
-        <v>24.59</v>
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-54.1021</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1.7042</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-15.8197</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-16.6639</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-18.8416</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-9.0931</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-2.048</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-4.448</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-20.6399</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-33.8231</v>
+      </c>
+      <c r="L2" s="1">
+        <v>57.7654</v>
+      </c>
+      <c r="M2" s="1">
+        <v>27.9553</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>203.576</v>
-      </c>
-      <c r="C3">
-        <v>24.9917</v>
-      </c>
-      <c r="D3">
-        <v>30.213</v>
-      </c>
-      <c r="E3">
-        <v>18.6266</v>
-      </c>
-      <c r="F3">
-        <v>249.4351</v>
-      </c>
-      <c r="G3">
-        <v>26.1633</v>
-      </c>
-      <c r="H3">
-        <v>162.8075</v>
-      </c>
-      <c r="I3">
-        <v>54.6422</v>
-      </c>
-      <c r="J3">
-        <v>70.5509</v>
-      </c>
-      <c r="K3">
-        <v>102.1731</v>
-      </c>
-      <c r="L3">
-        <v>-427.2766</v>
-      </c>
-      <c r="M3">
-        <v>-38.1709</v>
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>90.6528</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-0.2075</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25.0691</v>
+      </c>
+      <c r="E3" s="1">
+        <v>26.7676</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36.4423</v>
+      </c>
+      <c r="G3" s="1">
+        <v>16.8012</v>
+      </c>
+      <c r="H3" s="1">
+        <v>26.753</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9.3187</v>
+      </c>
+      <c r="J3" s="1">
+        <v>39.9205</v>
+      </c>
+      <c r="K3" s="1">
+        <v>62.237</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-91.5392</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-43.9464</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>-137.8553</v>
-      </c>
-      <c r="C4">
-        <v>-26.5219</v>
-      </c>
-      <c r="D4">
-        <v>-16.8492</v>
-      </c>
-      <c r="E4">
-        <v>-11.599</v>
-      </c>
-      <c r="F4">
-        <v>-180.0359</v>
-      </c>
-      <c r="G4">
-        <v>-17.5876</v>
-      </c>
-      <c r="H4">
-        <v>-146.8095</v>
-      </c>
-      <c r="I4">
-        <v>-41.8358</v>
-      </c>
-      <c r="J4">
-        <v>-50.9218</v>
-      </c>
-      <c r="K4">
-        <v>-67.8144</v>
-      </c>
-      <c r="L4">
-        <v>238.2835</v>
-      </c>
-      <c r="M4">
-        <v>20.9754</v>
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-84.5271</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-12.5042</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-14.1572</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-17.0888</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-27.835</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-12.2652</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-40.9553</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-7.2037</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-30.4917</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-45.0024</v>
+      </c>
+      <c r="L4" s="1">
+        <v>51.6946</v>
+      </c>
+      <c r="M4" s="1">
+        <v>24.6129</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>-26.3202</v>
-      </c>
-      <c r="C5">
-        <v>-6.531</v>
-      </c>
-      <c r="D5">
-        <v>-6.4391</v>
-      </c>
-      <c r="E5">
-        <v>-8.7046</v>
-      </c>
-      <c r="F5">
-        <v>61.321</v>
-      </c>
-      <c r="G5">
-        <v>5.7101</v>
-      </c>
-      <c r="H5">
-        <v>65.8966</v>
-      </c>
-      <c r="I5">
-        <v>18.1567</v>
-      </c>
-      <c r="J5">
-        <v>17.3442</v>
-      </c>
-      <c r="K5">
-        <v>21.1842</v>
-      </c>
-      <c r="L5">
-        <v>91.062</v>
-      </c>
-      <c r="M5">
-        <v>5.457</v>
+      <c r="B5" s="1">
+        <v>-10.4081</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1.8305</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-2.4042</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-4.2684</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10.3184</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.5087</v>
+      </c>
+      <c r="H5" s="1">
+        <v>30.9467</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6.1261</v>
+      </c>
+      <c r="J5" s="1">
+        <v>11.3032</v>
+      </c>
+      <c r="K5" s="1">
+        <v>16.2261</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8.7788</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.5981</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9">
-        <v>-127.5384</v>
-      </c>
-      <c r="C9">
-        <v>203.576</v>
-      </c>
-      <c r="D9">
-        <v>-137.8553</v>
-      </c>
-      <c r="E9">
-        <v>-26.3202</v>
-      </c>
-      <c r="G9">
+    <row r="8" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-54.1021</v>
+      </c>
+      <c r="C9" s="1">
+        <v>90.6528</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-84.5271</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-10.4081</v>
+      </c>
+      <c r="G9" s="1">
         <f>B9</f>
-        <v>-127.5384</v>
-      </c>
-      <c r="H9" t="s">
+        <v>-54.1021</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1">
+        <f>C9</f>
+        <v>90.6528</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1">
+        <f>D9</f>
+        <v>-84.5271</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="1">
+        <f>E9</f>
+        <v>-10.4081</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1.7042</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.2075</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-12.5042</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1.8305</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10:G20" si="0">B10</f>
+        <v>-1.7042</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10:I20" si="1">C10</f>
+        <v>-0.2075</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" ref="K10:K20" si="2">D10</f>
+        <v>-12.5042</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" ref="M10:M20" si="3">E10</f>
+        <v>-1.8305</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-15.8197</v>
+      </c>
+      <c r="C11" s="1">
+        <v>25.0691</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-14.1572</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-2.4042</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>-15.8197</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>25.0691</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>-14.1572</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.4042</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I9">
-        <f>C9</f>
-        <v>203.576</v>
-      </c>
-      <c r="J9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <f>D9</f>
-        <v>-137.8553</v>
-      </c>
-      <c r="L9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <f>E9</f>
-        <v>-26.3202</v>
-      </c>
-      <c r="N9" t="s">
-        <v>3</v>
+      <c r="B12" s="1">
+        <v>-16.6639</v>
+      </c>
+      <c r="C12" s="1">
+        <v>26.7676</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-17.0888</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-4.2684</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>-16.6639</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>26.7676</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>-17.0888</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.2684</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
-      <c r="B10">
-        <v>-17.0269</v>
-      </c>
-      <c r="C10">
-        <v>24.9917</v>
-      </c>
-      <c r="D10">
-        <v>-26.5219</v>
-      </c>
-      <c r="E10">
-        <v>-6.531</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ref="G10:G20" si="0">B10</f>
-        <v>-17.0269</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:I20" si="1">C10</f>
-        <v>24.9917</v>
-      </c>
-      <c r="J10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ref="K10:K20" si="2">D10</f>
-        <v>-26.5219</v>
-      </c>
-      <c r="L10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ref="M10:M20" si="3">E10</f>
-        <v>-6.531</v>
-      </c>
-      <c r="N10" t="s">
-        <v>3</v>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-18.8416</v>
+      </c>
+      <c r="C13" s="1">
+        <v>36.4423</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-27.835</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10.3184</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>-18.8416</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>36.4423</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>-27.835</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="3"/>
+        <v>10.3184</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
-      <c r="B11">
-        <v>-19.2266</v>
-      </c>
-      <c r="C11">
-        <v>30.213</v>
-      </c>
-      <c r="D11">
-        <v>-16.8492</v>
-      </c>
-      <c r="E11">
-        <v>-6.4391</v>
-      </c>
-      <c r="G11">
+    <row r="14" spans="1:14">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-9.0931</v>
+      </c>
+      <c r="C14" s="1">
+        <v>16.8012</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-12.2652</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.5087</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>-19.2266</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11">
+        <v>-9.0931</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>30.213</v>
-      </c>
-      <c r="J11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11">
+        <v>16.8012</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
-        <v>-16.8492</v>
-      </c>
-      <c r="L11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M11">
+        <v>-12.2652</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="3"/>
-        <v>-6.4391</v>
-      </c>
-      <c r="N11" t="s">
-        <v>3</v>
+        <v>4.5087</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
-      <c r="B12">
-        <v>-12.0306</v>
-      </c>
-      <c r="C12">
-        <v>18.6266</v>
-      </c>
-      <c r="D12">
-        <v>-11.599</v>
-      </c>
-      <c r="E12">
-        <v>-8.7046</v>
-      </c>
-      <c r="G12">
+    <row r="15" spans="1:14">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-2.048</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26.753</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-40.9553</v>
+      </c>
+      <c r="E15" s="1">
+        <v>30.9467</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>-12.0306</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12">
+        <v>-2.048</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="1"/>
-        <v>18.6266</v>
-      </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12">
+        <v>26.753</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1">
         <f t="shared" si="2"/>
-        <v>-11.599</v>
-      </c>
-      <c r="L12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12">
+        <v>-40.9553</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>-8.7046</v>
-      </c>
-      <c r="N12" t="s">
-        <v>3</v>
+        <v>30.9467</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
-      <c r="B13">
-        <v>-136.1066</v>
-      </c>
-      <c r="C13">
-        <v>249.4351</v>
-      </c>
-      <c r="D13">
-        <v>-180.0359</v>
-      </c>
-      <c r="E13">
-        <v>61.321</v>
-      </c>
-      <c r="G13">
+    <row r="16" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-4.448</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.3187</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-7.2037</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.1261</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>-136.1066</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13">
+        <v>-4.448</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>249.4351</v>
-      </c>
-      <c r="J13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13">
+        <v>9.3187</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1">
         <f t="shared" si="2"/>
-        <v>-180.0359</v>
-      </c>
-      <c r="L13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13">
+        <v>-7.2037</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="1">
         <f t="shared" si="3"/>
-        <v>61.321</v>
-      </c>
-      <c r="N13" t="s">
-        <v>3</v>
+        <v>6.1261</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
-      <c r="B14">
-        <v>-15.1166</v>
-      </c>
-      <c r="C14">
-        <v>26.1633</v>
-      </c>
-      <c r="D14">
-        <v>-17.5876</v>
-      </c>
-      <c r="E14">
-        <v>5.7101</v>
-      </c>
-      <c r="G14">
+    <row r="17" spans="1:14">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-20.6399</v>
+      </c>
+      <c r="C17" s="1">
+        <v>39.9205</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-30.4917</v>
+      </c>
+      <c r="E17" s="1">
+        <v>11.3032</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>-15.1166</v>
-      </c>
-      <c r="H14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14">
+        <v>-20.6399</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" si="1"/>
-        <v>26.1633</v>
-      </c>
-      <c r="J14" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14">
+        <v>39.9205</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="2"/>
-        <v>-17.5876</v>
-      </c>
-      <c r="L14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14">
+        <v>-30.4917</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1">
         <f t="shared" si="3"/>
-        <v>5.7101</v>
-      </c>
-      <c r="N14" t="s">
-        <v>3</v>
+        <v>11.3032</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15">
-        <v>-72.3749</v>
-      </c>
-      <c r="C15">
-        <v>162.8075</v>
-      </c>
-      <c r="D15">
-        <v>-146.8095</v>
-      </c>
-      <c r="E15">
-        <v>65.8966</v>
-      </c>
-      <c r="G15">
+    <row r="18" spans="1:14">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-33.8231</v>
+      </c>
+      <c r="C18" s="1">
+        <v>62.237</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-45.0024</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16.2261</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>-72.3749</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15">
+        <v>-33.8231</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" si="1"/>
-        <v>162.8075</v>
-      </c>
-      <c r="J15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15">
+        <v>62.237</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1">
         <f t="shared" si="2"/>
-        <v>-146.8095</v>
-      </c>
-      <c r="L15" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15">
+        <v>-45.0024</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="1">
         <f t="shared" si="3"/>
-        <v>65.8966</v>
-      </c>
-      <c r="N15" t="s">
-        <v>3</v>
+        <v>16.2261</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16">
-        <v>-28.8617</v>
-      </c>
-      <c r="C16">
-        <v>54.6422</v>
-      </c>
-      <c r="D16">
-        <v>-41.8358</v>
-      </c>
-      <c r="E16">
-        <v>18.1567</v>
-      </c>
-      <c r="G16">
+    <row r="19" spans="1:14">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>57.7654</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-91.5392</v>
+      </c>
+      <c r="D19" s="1">
+        <v>51.6946</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8.7788</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>-28.8617</v>
-      </c>
-      <c r="H16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16">
+        <v>57.7654</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" si="1"/>
-        <v>54.6422</v>
-      </c>
-      <c r="J16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16">
+        <v>-91.5392</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="2"/>
-        <v>-41.8358</v>
-      </c>
-      <c r="L16" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16">
+        <v>51.6946</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="1">
         <f t="shared" si="3"/>
-        <v>18.1567</v>
-      </c>
-      <c r="N16" t="s">
-        <v>3</v>
+        <v>8.7788</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
-      <c r="B17">
-        <v>-38.4968</v>
-      </c>
-      <c r="C17">
-        <v>70.5509</v>
-      </c>
-      <c r="D17">
-        <v>-50.9218</v>
-      </c>
-      <c r="E17">
-        <v>17.3442</v>
-      </c>
-      <c r="G17">
+    <row r="20" spans="1:14">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>27.9553</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-43.9464</v>
+      </c>
+      <c r="D20" s="1">
+        <v>24.6129</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.5981</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>-38.4968</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17">
+        <v>27.9553</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" si="1"/>
-        <v>70.5509</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17">
+        <v>-43.9464</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1">
         <f t="shared" si="2"/>
-        <v>-50.9218</v>
-      </c>
-      <c r="L17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17">
+        <v>24.6129</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="1">
         <f t="shared" si="3"/>
-        <v>17.3442</v>
-      </c>
-      <c r="N17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18">
-        <v>-59.4404</v>
-      </c>
-      <c r="C18">
-        <v>102.1731</v>
-      </c>
-      <c r="D18">
-        <v>-67.8144</v>
-      </c>
-      <c r="E18">
-        <v>21.1842</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>-59.4404</v>
-      </c>
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>102.1731</v>
-      </c>
-      <c r="J18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>-67.8144</v>
-      </c>
-      <c r="L18" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="3"/>
-        <v>21.1842</v>
-      </c>
-      <c r="N18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19">
-        <v>271.9045</v>
-      </c>
-      <c r="C19">
-        <v>-427.2766</v>
-      </c>
-      <c r="D19">
-        <v>238.2835</v>
-      </c>
-      <c r="E19">
-        <v>91.062</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>271.9045</v>
-      </c>
-      <c r="H19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>-427.2766</v>
-      </c>
-      <c r="J19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
-        <v>238.2835</v>
-      </c>
-      <c r="L19" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="3"/>
-        <v>91.062</v>
-      </c>
-      <c r="N19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20">
-        <v>24.59</v>
-      </c>
-      <c r="C20">
-        <v>-38.1709</v>
-      </c>
-      <c r="D20">
-        <v>20.9754</v>
-      </c>
-      <c r="E20">
-        <v>5.457</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>24.59</v>
-      </c>
-      <c r="H20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>-38.1709</v>
-      </c>
-      <c r="J20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>20.9754</v>
-      </c>
-      <c r="L20" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="3"/>
-        <v>5.457</v>
-      </c>
-      <c r="N20" t="s">
-        <v>4</v>
+        <v>1.5981</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
